--- a/documentation/BOM_3d-viz-rig.xlsx
+++ b/documentation/BOM_3d-viz-rig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28760" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="93">
   <si>
     <t>System</t>
   </si>
@@ -246,9 +246,6 @@
     <t>https://www.bluerobotics.com/store/tools/tool-hex-set-r1/</t>
   </si>
   <si>
-    <t>iPad Air</t>
-  </si>
-  <si>
     <t>UI for diver</t>
   </si>
   <si>
@@ -265,6 +262,42 @@
   </si>
   <si>
     <t>iDive</t>
+  </si>
+  <si>
+    <t>Friction Hinge</t>
+  </si>
+  <si>
+    <t>adjusting iDive viewing angle</t>
+  </si>
+  <si>
+    <t>McMaster</t>
+  </si>
+  <si>
+    <t>1460A3</t>
+  </si>
+  <si>
+    <t>for adjusting iDive position</t>
+  </si>
+  <si>
+    <t>Double-Button Quick Release Connector: Stainless Steel</t>
+  </si>
+  <si>
+    <t>92988A750</t>
+  </si>
+  <si>
+    <t>http://idivehousing.com/</t>
+  </si>
+  <si>
+    <t>iPad Air 2</t>
+  </si>
+  <si>
+    <t>http://www.apple.com/ipad-air-2/</t>
+  </si>
+  <si>
+    <t>http://www.sony.com/electronics/camera-lenses/sel20f28</t>
+  </si>
+  <si>
+    <t>http://www.sony.com/electronics/interchangeable-lens-cameras/ilce-qx1-body-kit</t>
   </si>
 </sst>
 </file>
@@ -320,7 +353,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -338,6 +371,9 @@
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -671,16 +707,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="2" width="42.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="78.6640625" style="3" customWidth="1"/>
     <col min="3" max="3" width="28" style="3" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" style="3" customWidth="1"/>
     <col min="5" max="5" width="12.5" style="3" customWidth="1"/>
@@ -830,7 +866,7 @@
         <v>29</v>
       </c>
       <c r="H6" s="3">
-        <f>F6*G6</f>
+        <f t="shared" ref="H6:H11" si="1">F6*G6</f>
         <v>116</v>
       </c>
     </row>
@@ -854,7 +890,7 @@
         <v>8</v>
       </c>
       <c r="H7" s="3">
-        <f>F7*G7</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
     </row>
@@ -875,7 +911,7 @@
         <v>8</v>
       </c>
       <c r="H8" s="3">
-        <f>F8*G8</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
     </row>
@@ -896,7 +932,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="3">
-        <f>F9*G9</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
@@ -917,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="3">
-        <f>F10*G10</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
@@ -941,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="H11" s="3">
-        <f>F11*G11</f>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
     </row>
@@ -1025,249 +1061,325 @@
       <c r="D18" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B21" s="3" t="s">
+      <c r="F18" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="B19" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" s="6">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3">
+        <v>26.5</v>
+      </c>
+      <c r="H19" s="3">
+        <f>F19*G19</f>
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="B20" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="6">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3">
+        <v>3.06</v>
+      </c>
+      <c r="H20" s="3">
+        <f>F20*G20</f>
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="6">
+      <c r="E24" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F24" s="6">
         <v>2</v>
       </c>
-      <c r="G21" s="3">
-        <v>796</v>
-      </c>
-      <c r="H21" s="3">
-        <f>F21*G21</f>
-        <v>1592</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="B22" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F22" s="6">
-        <v>2</v>
-      </c>
-      <c r="G22" s="3">
-        <v>500</v>
-      </c>
-      <c r="H22" s="3">
-        <f>F22*G22</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="B23" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="B24" t="s">
-        <v>75</v>
-      </c>
-      <c r="C24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D24" t="s">
-        <v>77</v>
-      </c>
-      <c r="E24"/>
-      <c r="F24" s="6">
-        <v>1</v>
+      <c r="G24" s="3">
+        <v>499.99</v>
+      </c>
+      <c r="H24" s="3">
+        <f>F24*G24</f>
+        <v>999.98</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="B25" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" s="6">
+        <v>2</v>
+      </c>
+      <c r="G25" s="3">
+        <v>349.99</v>
+      </c>
+      <c r="H25" s="3">
+        <f>F25*G25</f>
+        <v>699.98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="B26" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="B27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F27" s="6">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3">
+        <v>499</v>
+      </c>
+      <c r="H27" s="3">
+        <f>F27*G27</f>
+        <v>499</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="B28" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F25" s="6">
+      <c r="E28" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F28" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="1" t="s">
+      <c r="G28" s="3">
+        <v>999</v>
+      </c>
+      <c r="H28" s="3">
+        <f>F28*G28</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B30" t="s">
         <v>46</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C30" t="s">
         <v>47</v>
       </c>
-      <c r="D27"/>
-      <c r="F27" s="7">
+      <c r="D30"/>
+      <c r="F30" s="7">
         <v>2</v>
       </c>
-      <c r="G27">
+      <c r="G30">
         <v>139.94999999999999</v>
       </c>
-      <c r="H27">
-        <f>G27*F27</f>
+      <c r="H30">
+        <f>G30*F30</f>
         <v>279.89999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
-      <c r="B28" t="s">
+    <row r="31" spans="1:8">
+      <c r="B31" t="s">
         <v>48</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C31" t="s">
         <v>49</v>
       </c>
-      <c r="D28"/>
-      <c r="F28" s="7">
+      <c r="D31"/>
+      <c r="F31" s="7">
         <v>2</v>
       </c>
-      <c r="G28">
+      <c r="G31">
         <v>250</v>
       </c>
-      <c r="H28">
-        <f>G28*F28</f>
+      <c r="H31">
+        <f>G31*F31</f>
         <v>500</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
-      <c r="F29" s="7"/>
-      <c r="G29"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="B30"/>
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30"/>
-      <c r="F30" s="7"/>
-      <c r="G30"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="B31"/>
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31" s="7"/>
-      <c r="G31"/>
-    </row>
     <row r="32" spans="1:8">
-      <c r="B32"/>
-      <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32"/>
       <c r="F32" s="7"/>
       <c r="G32"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="1" t="s">
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33" s="7"/>
+      <c r="G33"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34" s="7"/>
+      <c r="G34"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35" s="7"/>
+      <c r="G35"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B36" t="s">
         <v>62</v>
       </c>
-      <c r="C33"/>
-      <c r="D33" t="s">
+      <c r="C36"/>
+      <c r="D36" t="s">
         <v>63</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F36" s="7">
         <v>12</v>
       </c>
-      <c r="G33">
+      <c r="G36">
         <v>28.99</v>
       </c>
-      <c r="H33" s="3">
-        <f>F33*G33</f>
+      <c r="H36" s="3">
+        <f>F36*G36</f>
         <v>347.88</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="1" t="s">
+    <row r="41" spans="1:8">
+      <c r="A41" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B41" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="1" t="s">
+    <row r="42" spans="1:8">
+      <c r="A42" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B42" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D39" s="8"/>
-      <c r="E39" s="2" t="s">
+      <c r="D42" s="8"/>
+      <c r="E42" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F42" s="9">
         <v>2</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G42" s="3">
         <v>3</v>
       </c>
-      <c r="H39" s="8">
-        <f>G39*F39</f>
+      <c r="H42" s="8">
+        <f>G42*F42</f>
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
-      <c r="B40" s="3" t="s">
+    <row r="43" spans="1:8">
+      <c r="B43" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D43" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F43" s="6">
         <v>2</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G43" s="3">
         <v>4</v>
       </c>
-      <c r="H40" s="8">
-        <f>G40*F40</f>
+      <c r="H43" s="8">
+        <f>G43*F43</f>
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
-      <c r="B41" s="3" t="s">
+    <row r="44" spans="1:8">
+      <c r="B44" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D44" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F44" s="6">
         <v>2</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G44" s="3">
         <v>6</v>
       </c>
-      <c r="H41" s="8">
-        <f>G41*F41</f>
+      <c r="H44" s="8">
+        <f>G44*F44</f>
         <v>12</v>
       </c>
     </row>
@@ -1285,10 +1397,14 @@
     <hyperlink ref="E11" r:id="rId10"/>
     <hyperlink ref="E16" r:id="rId11"/>
     <hyperlink ref="E17" r:id="rId12"/>
-    <hyperlink ref="E33" r:id="rId13"/>
-    <hyperlink ref="E39" r:id="rId14"/>
-    <hyperlink ref="E40" r:id="rId15"/>
-    <hyperlink ref="E41" r:id="rId16"/>
+    <hyperlink ref="E36" r:id="rId13"/>
+    <hyperlink ref="E42" r:id="rId14"/>
+    <hyperlink ref="E43" r:id="rId15"/>
+    <hyperlink ref="E44" r:id="rId16"/>
+    <hyperlink ref="E28" r:id="rId17"/>
+    <hyperlink ref="E27" r:id="rId18"/>
+    <hyperlink ref="E25" r:id="rId19"/>
+    <hyperlink ref="E24" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/documentation/BOM_3d-viz-rig.xlsx
+++ b/documentation/BOM_3d-viz-rig.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="116">
   <si>
     <t>System</t>
   </si>
@@ -132,9 +132,6 @@
     <t>Mfg./Supplier</t>
   </si>
   <si>
-    <t>Prototyping Lab</t>
-  </si>
-  <si>
     <t>Computing</t>
   </si>
   <si>
@@ -298,6 +295,78 @@
   </si>
   <si>
     <t>http://www.sony.com/electronics/interchangeable-lens-cameras/ilce-qx1-body-kit</t>
+  </si>
+  <si>
+    <t>SIO Machine Shop</t>
+  </si>
+  <si>
+    <t>Industrial Metal Supply</t>
+  </si>
+  <si>
+    <t>https://www.bluerobotics.com/store/electronics/switch-10-5a-r1/</t>
+  </si>
+  <si>
+    <t>Waterproof Switch</t>
+  </si>
+  <si>
+    <t>for turning system on/off</t>
+  </si>
+  <si>
+    <t>Material for enclosure compression rings</t>
+  </si>
+  <si>
+    <t>Mityvac MV8000 Automotive Test and Bleeding Kit</t>
+  </si>
+  <si>
+    <t>vacuum pump for checking seals</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/product/B00265M9SS?pldnSite=1</t>
+  </si>
+  <si>
+    <t>battery packs (1 pack per housing)</t>
+  </si>
+  <si>
+    <t>https://www.bluerobotics.com/store/tools/loctite-marine-epoxy/</t>
+  </si>
+  <si>
+    <t>making cable penetrators</t>
+  </si>
+  <si>
+    <t>http://www.nextwarehouse.com/item/?2509635_g10e</t>
+  </si>
+  <si>
+    <t>NextWarehouse</t>
+  </si>
+  <si>
+    <t>TOTAL COST</t>
+  </si>
+  <si>
+    <t>92196A148</t>
+  </si>
+  <si>
+    <t>Stainless Steel socket head cap screws, 6-32 x 1/2", box of 100</t>
+  </si>
+  <si>
+    <t>for holding enclosure tubes</t>
+  </si>
+  <si>
+    <t>for attaching enclosure tube holders</t>
+  </si>
+  <si>
+    <t>Ultra-Low-Profile Socket Head Screw, 10-32 Thread Size, 3/4" Long</t>
+  </si>
+  <si>
+    <t>91223A214</t>
+  </si>
+  <si>
+    <t>Ikelite flex arm</t>
+  </si>
+  <si>
+    <t>for strobes/video lights</t>
+  </si>
+  <si>
+    <t>https://www.bhphotovideo.com/bnh/controller/home?O=invoice&amp;A=details&amp;Q=&amp;sku=1030864&amp;is=REG&amp;mode=edu</t>
   </si>
 </sst>
 </file>
@@ -307,7 +376,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -331,6 +400,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -349,11 +426,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -375,8 +457,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -707,21 +797,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
     <col min="2" max="2" width="78.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="28" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="30.83203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" style="3" customWidth="1"/>
     <col min="5" max="5" width="12.5" style="3" customWidth="1"/>
     <col min="6" max="6" width="5" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="3"/>
+    <col min="7" max="8" width="10.83203125" style="12"/>
+    <col min="9" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1">
@@ -738,15 +829,15 @@
         <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="11" t="s">
         <v>6</v>
       </c>
     </row>
@@ -761,7 +852,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>9</v>
@@ -769,10 +860,10 @@
       <c r="F2" s="6">
         <v>2</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="12">
         <v>59</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="12">
         <f>F2*G2</f>
         <v>118</v>
       </c>
@@ -785,7 +876,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>12</v>
@@ -793,10 +884,10 @@
       <c r="F3" s="6">
         <v>2</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="12">
         <v>16</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="12">
         <f t="shared" ref="H3:H5" si="0">F3*G3</f>
         <v>32</v>
       </c>
@@ -809,7 +900,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>15</v>
@@ -817,10 +908,10 @@
       <c r="F4" s="6">
         <v>2</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="12">
         <v>54</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="12">
         <f t="shared" si="0"/>
         <v>108</v>
       </c>
@@ -833,7 +924,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>17</v>
@@ -841,10 +932,10 @@
       <c r="F5" s="6">
         <v>2</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="12">
         <v>26</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="12">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
@@ -854,7 +945,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>19</v>
@@ -862,11 +953,11 @@
       <c r="F6" s="6">
         <v>4</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="12">
         <v>29</v>
       </c>
-      <c r="H6" s="3">
-        <f t="shared" ref="H6:H11" si="1">F6*G6</f>
+      <c r="H6" s="12">
+        <f t="shared" ref="H6:H12" si="1">F6*G6</f>
         <v>116</v>
       </c>
     </row>
@@ -878,7 +969,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>22</v>
@@ -886,10 +977,10 @@
       <c r="F7" s="6">
         <v>2</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="12">
         <v>8</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="12">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
@@ -899,7 +990,7 @@
         <v>23</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>24</v>
@@ -907,10 +998,10 @@
       <c r="F8" s="6">
         <v>2</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="12">
         <v>8</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="12">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
@@ -920,7 +1011,7 @@
         <v>25</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>26</v>
@@ -928,10 +1019,10 @@
       <c r="F9" s="6">
         <v>10</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="12">
         <v>4</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="12">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
@@ -941,20 +1032,20 @@
         <v>27</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F10" s="6">
-        <v>10</v>
-      </c>
-      <c r="G10" s="3">
+        <v>9</v>
+      </c>
+      <c r="G10" s="12">
         <v>4</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="12">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -965,7 +1056,7 @@
         <v>30</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>31</v>
@@ -973,310 +1064,402 @@
       <c r="F11" s="6">
         <v>6</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="12">
         <v>7</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="12">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1" t="s">
+    <row r="12" spans="1:8">
+      <c r="B12" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" s="6">
+        <v>1</v>
+      </c>
+      <c r="G12" s="12">
+        <v>14</v>
+      </c>
+      <c r="H12" s="12">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="B15" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>45</v>
+      <c r="D15" s="3" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="B16" s="3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="6">
-        <v>1</v>
-      </c>
-      <c r="G16" s="3">
-        <v>64.95</v>
-      </c>
-      <c r="H16" s="3">
-        <f>F16*G16</f>
-        <v>64.95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="B17" s="3" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" s="6">
-        <v>1</v>
-      </c>
-      <c r="G17" s="3">
-        <v>64.95</v>
-      </c>
-      <c r="H17" s="3">
-        <f>F17*G17</f>
-        <v>64.95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="B18" s="3" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" s="6">
-        <v>4</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="B19" s="3" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>84</v>
+        <v>53</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="F19" s="6">
         <v>1</v>
       </c>
-      <c r="G19" s="3">
-        <v>26.5</v>
-      </c>
-      <c r="H19" s="3">
+      <c r="G19" s="12">
+        <v>64.95</v>
+      </c>
+      <c r="H19" s="12">
         <f>F19*G19</f>
-        <v>26.5</v>
+        <v>64.95</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="B20" s="3" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>87</v>
+        <v>53</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="F20" s="6">
         <v>1</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="12">
+        <v>64.95</v>
+      </c>
+      <c r="H20" s="12">
+        <f>F20*G20</f>
+        <v>64.95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="B21" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F21" s="6">
+        <v>2</v>
+      </c>
+      <c r="G21" s="12">
+        <v>49.95</v>
+      </c>
+      <c r="H21" s="12">
+        <f>G21*F21</f>
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="B22" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22" s="6">
+        <v>1</v>
+      </c>
+      <c r="G22" s="12">
+        <v>26.5</v>
+      </c>
+      <c r="H22" s="12">
+        <f>F22*G22</f>
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="B23" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F23" s="6">
+        <v>1</v>
+      </c>
+      <c r="G23" s="12">
         <v>3.06</v>
       </c>
-      <c r="H20" s="3">
-        <f>F20*G20</f>
+      <c r="H23" s="12">
+        <f>F23*G23</f>
         <v>3.06</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="B24" s="3" t="s">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>92</v>
+        <v>82</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="F24" s="6">
-        <v>2</v>
-      </c>
-      <c r="G24" s="3">
-        <v>499.99</v>
-      </c>
-      <c r="H24" s="3">
+        <v>1</v>
+      </c>
+      <c r="G24" s="12">
+        <v>5.2</v>
+      </c>
+      <c r="H24" s="12">
         <f>F24*G24</f>
-        <v>999.98</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="B25" s="3" t="s">
-        <v>42</v>
+        <v>111</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="E25" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F25" s="6">
+        <v>8</v>
+      </c>
+      <c r="G25" s="12">
+        <v>3.94</v>
+      </c>
+      <c r="H25" s="12">
+        <f>F25*G25</f>
+        <v>31.52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F27" s="6">
         <v>2</v>
       </c>
-      <c r="G25" s="3">
-        <v>349.99</v>
-      </c>
-      <c r="H25" s="3">
-        <f>F25*G25</f>
-        <v>699.98</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="B26" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="B27" t="s">
-        <v>89</v>
-      </c>
-      <c r="C27" t="s">
-        <v>75</v>
-      </c>
-      <c r="D27" t="s">
-        <v>76</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F27" s="6">
-        <v>1</v>
-      </c>
-      <c r="G27" s="3">
-        <v>499</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="G27" s="12">
+        <v>499.99</v>
+      </c>
+      <c r="H27" s="12">
         <f>F27*G27</f>
-        <v>499</v>
+        <v>999.98</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="B28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F28" s="6">
+        <v>2</v>
+      </c>
+      <c r="G28" s="12">
+        <v>349.99</v>
+      </c>
+      <c r="H28" s="12">
+        <f>F28*G28</f>
+        <v>699.98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="B29" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="B30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F30" s="6">
+        <v>1</v>
+      </c>
+      <c r="G30" s="12">
+        <v>499</v>
+      </c>
+      <c r="H30" s="12">
+        <f>F30*G30</f>
+        <v>499</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="B31" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F28" s="6">
+      <c r="E31" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F31" s="6">
         <v>1</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G31" s="12">
         <v>999</v>
       </c>
-      <c r="H28" s="3">
-        <f>F28*G28</f>
+      <c r="H31" s="12">
+        <f>F31*G31</f>
         <v>999</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" t="s">
+    <row r="33" spans="1:8">
+      <c r="A33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" t="s">
         <v>46</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D33" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F33" s="7">
+        <v>2</v>
+      </c>
+      <c r="G33" s="13">
+        <v>159</v>
+      </c>
+      <c r="H33" s="13">
+        <f>G33*F33</f>
+        <v>318</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="B34" t="s">
         <v>47</v>
       </c>
-      <c r="D30"/>
-      <c r="F30" s="7">
+      <c r="C34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34"/>
+      <c r="F34" s="7">
         <v>2</v>
       </c>
-      <c r="G30">
-        <v>139.94999999999999</v>
-      </c>
-      <c r="H30">
-        <f>G30*F30</f>
-        <v>279.89999999999998</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="B31" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31"/>
-      <c r="F31" s="7">
-        <v>2</v>
-      </c>
-      <c r="G31">
+      <c r="G34" s="13">
         <v>250</v>
       </c>
-      <c r="H31">
-        <f>G31*F31</f>
+      <c r="H34" s="13">
+        <f>G34*F34</f>
         <v>500</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="F32" s="7"/>
-      <c r="G32"/>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="B33"/>
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33" s="7"/>
-      <c r="G33"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="B34"/>
-      <c r="C34"/>
-      <c r="D34"/>
-      <c r="E34"/>
-      <c r="F34" s="7"/>
-      <c r="G34"/>
     </row>
     <row r="35" spans="1:8">
       <c r="B35"/>
@@ -1284,103 +1467,159 @@
       <c r="D35"/>
       <c r="E35"/>
       <c r="F35" s="7"/>
-      <c r="G35"/>
+      <c r="G35" s="13"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" t="s">
         <v>62</v>
       </c>
-      <c r="C36"/>
-      <c r="D36" t="s">
+      <c r="E36" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="F36" s="7">
         <v>12</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="13">
         <v>28.99</v>
       </c>
-      <c r="H36" s="3">
+      <c r="H36" s="12">
         <f>F36*G36</f>
         <v>347.88</v>
       </c>
     </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F39" s="6">
+        <v>4</v>
+      </c>
+      <c r="G39" s="12">
+        <v>6</v>
+      </c>
+      <c r="H39" s="12">
+        <f>F39*G39</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F40" s="9">
+        <v>2</v>
+      </c>
+      <c r="G40" s="12">
+        <v>3</v>
+      </c>
+      <c r="H40" s="12">
+        <f>G40*F40</f>
+        <v>6</v>
+      </c>
+    </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="B41" s="3" t="s">
-        <v>50</v>
+        <v>71</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F41" s="6">
+        <v>2</v>
+      </c>
+      <c r="G41" s="12">
+        <v>4</v>
+      </c>
+      <c r="H41" s="12">
+        <f>G41*F41</f>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="B42" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D42" s="8"/>
+        <v>72</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="E42" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F42" s="9">
+        <v>73</v>
+      </c>
+      <c r="F42" s="6">
         <v>2</v>
       </c>
-      <c r="G42" s="3">
-        <v>3</v>
-      </c>
-      <c r="H42" s="8">
+      <c r="G42" s="12">
+        <v>6</v>
+      </c>
+      <c r="H42" s="12">
         <f>G42*F42</f>
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="B43" s="3" t="s">
-        <v>72</v>
+        <v>98</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="F43" s="6">
-        <v>2</v>
-      </c>
-      <c r="G43" s="3">
-        <v>4</v>
-      </c>
-      <c r="H43" s="8">
-        <f>G43*F43</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="B44" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F44" s="6">
-        <v>2</v>
-      </c>
-      <c r="G44" s="3">
-        <v>6</v>
-      </c>
-      <c r="H44" s="8">
-        <f>G44*F44</f>
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="G43" s="12">
+        <v>34.22</v>
+      </c>
+      <c r="H43" s="12">
+        <f>F43*G43</f>
+        <v>34.22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H46" s="12">
+        <f>SUM(H2:H43)</f>
+        <v>5334.14</v>
       </c>
     </row>
   </sheetData>
@@ -1395,16 +1634,23 @@
     <hyperlink ref="E9" r:id="rId8"/>
     <hyperlink ref="E10" r:id="rId9"/>
     <hyperlink ref="E11" r:id="rId10"/>
-    <hyperlink ref="E16" r:id="rId11"/>
-    <hyperlink ref="E17" r:id="rId12"/>
+    <hyperlink ref="E19" r:id="rId11"/>
+    <hyperlink ref="E20" r:id="rId12"/>
     <hyperlink ref="E36" r:id="rId13"/>
-    <hyperlink ref="E42" r:id="rId14"/>
-    <hyperlink ref="E43" r:id="rId15"/>
-    <hyperlink ref="E44" r:id="rId16"/>
-    <hyperlink ref="E28" r:id="rId17"/>
-    <hyperlink ref="E27" r:id="rId18"/>
-    <hyperlink ref="E25" r:id="rId19"/>
-    <hyperlink ref="E24" r:id="rId20"/>
+    <hyperlink ref="E40" r:id="rId14"/>
+    <hyperlink ref="E41" r:id="rId15"/>
+    <hyperlink ref="E42" r:id="rId16"/>
+    <hyperlink ref="E31" r:id="rId17"/>
+    <hyperlink ref="E30" r:id="rId18"/>
+    <hyperlink ref="E28" r:id="rId19"/>
+    <hyperlink ref="E27" r:id="rId20"/>
+    <hyperlink ref="E12" r:id="rId21"/>
+    <hyperlink ref="E43" r:id="rId22"/>
+    <hyperlink ref="E39" r:id="rId23"/>
+    <hyperlink ref="E33" r:id="rId24"/>
+    <hyperlink ref="E24" r:id="rId25" location="92196A148" tooltip="Close"/>
+    <hyperlink ref="E25" r:id="rId26"/>
+    <hyperlink ref="E21" r:id="rId27"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/documentation/BOM_3d-viz-rig.xlsx
+++ b/documentation/BOM_3d-viz-rig.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="120">
   <si>
     <t>System</t>
   </si>
@@ -367,6 +367,18 @@
   </si>
   <si>
     <t>https://www.bhphotovideo.com/bnh/controller/home?O=invoice&amp;A=details&amp;Q=&amp;sku=1030864&amp;is=REG&amp;mode=edu</t>
+  </si>
+  <si>
+    <t>https://github.com/UCSD-E4E/3d-visualization-system/blob/master/CAD/Base%20plate.SLDPRT</t>
+  </si>
+  <si>
+    <t>https://github.com/UCSD-E4E/3d-visualization-system/blob/master/CAD/enclosure%20tube%20holder.SLDPRT</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>(included in machining cost)</t>
   </si>
 </sst>
 </file>
@@ -797,10 +809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -815,7 +827,7 @@
     <col min="9" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1">
+    <row r="1" spans="1:9" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -840,8 +852,11 @@
       <c r="H1" s="11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -868,7 +883,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
@@ -892,7 +907,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
@@ -916,7 +931,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="B5" s="3" t="s">
         <v>32</v>
       </c>
@@ -940,7 +955,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
@@ -961,7 +976,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="B7" s="3" t="s">
         <v>20</v>
       </c>
@@ -985,7 +1000,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="B8" s="3" t="s">
         <v>23</v>
       </c>
@@ -1006,7 +1021,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="B9" s="3" t="s">
         <v>25</v>
       </c>
@@ -1027,7 +1042,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="B10" s="3" t="s">
         <v>27</v>
       </c>
@@ -1048,7 +1063,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="B11" s="3" t="s">
         <v>29</v>
       </c>
@@ -1072,7 +1087,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="B12" s="3" t="s">
         <v>95</v>
       </c>
@@ -1096,7 +1111,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
@@ -1109,8 +1124,21 @@
       <c r="D15" s="3" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="E15" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F15" s="6">
+        <v>1</v>
+      </c>
+      <c r="G15" s="12">
+        <v>175</v>
+      </c>
+      <c r="H15" s="12">
+        <f>F15*G15</f>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="B16" s="3" t="s">
         <v>59</v>
       </c>
@@ -1120,8 +1148,21 @@
       <c r="D16" s="3" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="E16" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F16" s="6">
+        <v>4</v>
+      </c>
+      <c r="G16" s="12">
+        <v>125</v>
+      </c>
+      <c r="H16" s="12">
+        <f>F16*G16</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="B17" s="3" t="s">
         <v>43</v>
       </c>
@@ -1131,8 +1172,11 @@
       <c r="D17" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="B18" s="3" t="s">
         <v>97</v>
       </c>
@@ -1142,8 +1186,11 @@
       <c r="D18" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="B19" s="3" t="s">
         <v>52</v>
       </c>
@@ -1167,7 +1214,7 @@
         <v>64.95</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:9">
       <c r="B20" s="3" t="s">
         <v>54</v>
       </c>
@@ -1191,7 +1238,7 @@
         <v>64.95</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:9">
       <c r="B21" s="3" t="s">
         <v>113</v>
       </c>
@@ -1215,7 +1262,7 @@
         <v>99.9</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:9">
       <c r="B22" s="3" t="s">
         <v>80</v>
       </c>
@@ -1239,7 +1286,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:9">
       <c r="B23" s="3" t="s">
         <v>85</v>
       </c>
@@ -1263,7 +1310,7 @@
         <v>3.06</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:9">
       <c r="B24" s="3" t="s">
         <v>108</v>
       </c>
@@ -1287,7 +1334,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:9">
       <c r="B25" s="3" t="s">
         <v>111</v>
       </c>
@@ -1311,7 +1358,7 @@
         <v>31.52</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
         <v>76</v>
       </c>
@@ -1338,7 +1385,7 @@
         <v>999.98</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:9">
       <c r="B28" s="3" t="s">
         <v>41</v>
       </c>
@@ -1359,7 +1406,7 @@
         <v>699.98</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:9">
       <c r="B29" s="3" t="s">
         <v>66</v>
       </c>
@@ -1367,7 +1414,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:9">
       <c r="B30" t="s">
         <v>88</v>
       </c>
@@ -1391,7 +1438,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:9">
       <c r="B31" s="3" t="s">
         <v>77</v>
       </c>
@@ -1619,7 +1666,7 @@
       </c>
       <c r="H46" s="12">
         <f>SUM(H2:H43)</f>
-        <v>5334.14</v>
+        <v>6009.1400000000012</v>
       </c>
     </row>
   </sheetData>
@@ -1651,6 +1698,8 @@
     <hyperlink ref="E24" r:id="rId25" location="92196A148" tooltip="Close"/>
     <hyperlink ref="E25" r:id="rId26"/>
     <hyperlink ref="E21" r:id="rId27"/>
+    <hyperlink ref="E15" r:id="rId28"/>
+    <hyperlink ref="E16" r:id="rId29"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
